--- a/Skybot Mobile Application/OSolodka_Localization_Interruption_BatteryDrain_TestingVersion3.0.xlsx
+++ b/Skybot Mobile Application/OSolodka_Localization_Interruption_BatteryDrain_TestingVersion3.0.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="17. Localization testing" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="18. Interruption testing" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="19. Battery drain testing " sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="0. Installing App" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="17. Localization testing" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="18. Interruption testing" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="19. Battery drain testing " sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Project name: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Skybot Mobile Application Version 3.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Test Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> Mobile App Skybot Electric
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">: Android 14, 
+                      Version Software A536BXXSBEXH1, 
+                      Version One UI 6.1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Network: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Wi-Fi</t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Download the Mobile App</t>
+  </si>
+  <si>
+    <t>Verify the mobile app download successfully</t>
+  </si>
+  <si>
+    <t>The user is logged into the Google Play Store.
+Sufficient free storage space available on the device</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Follow the instruction of document</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> https://docs.google.com/document/d/1mYTKMs_j1lH0dGf2_av0hNdvhBni_HdAJHzyli3RJ_Q/edit?tab=t.0#heading=h.jtz6b0s59c9t</t>
+    </r>
+  </si>
+  <si>
+    <t>The app is successfully downloaded on the device</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Launching the Mobile App</t>
+  </si>
+  <si>
+    <t>Verify the mobile app launches successfully</t>
+  </si>
+  <si>
+    <t>The app is installed on the device</t>
+  </si>
+  <si>
+    <t>1. Open the mobile app
+2. Observe the page</t>
+  </si>
+  <si>
+    <t>The app opens without errors, displaying the main screen</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Uninstalling an App from the Mobile Device</t>
+  </si>
+  <si>
+    <t>Verify the user is able to successfully uninstall the application from their mobile device</t>
+  </si>
+  <si>
+    <t>The app is installed on the mobile device.
+The user has access to the device's settings or app drawer</t>
+  </si>
+  <si>
+    <t>Method 1: Uninstall via App Drawer
+1. Navigate to the App Drawer (list of all installed apps).
+2. Locate the app to be uninstalled.
+3. Press and hold the app icon.
+4. From the options that appear, select Uninstall.
+5. Confirm the action by tapping OK or Uninstall on the confirmation pop-up
+Method 2: Uninstall via Device Settings
+1. Open the Settings app on the device.
+2. Navigate to Apps or Applications.
+3. Scroll through the list and select the app to uninstall.
+4. Tap Uninstall.
+5. Confirm the action by tapping OK or Uninstall on the confirmation pop-up</t>
+  </si>
+  <si>
+    <t>The app is successfully uninstalled from the device.
+The app is no longer available in the app drawer or in the device’s list of installed applications.
+The user may receive a confirmation message that the app was uninstalled.</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -90,33 +285,6 @@
     </r>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Preconditions</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Translation Accuracy of Interface Text in Spanish (Español)</t>
   </si>
   <si>
@@ -143,9 +311,6 @@
 Localization 1 spanish</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Verify Localization of the Product Details</t>
   </si>
   <si>
@@ -188,9 +353,6 @@
   <si>
     <t>The date should be displayed in the format DD/MM/YYYY (e.g., 04/11/2024 for November 4, 2024).
 All day and month names should appear in Spanish (e.g., "Lunes" for Monday and "Noviembre" for November)</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Time Display for Central European Time (CET) in mainland Spain</t>
@@ -726,7 +888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d.m"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -734,9 +896,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -751,6 +913,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -761,11 +940,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -788,14 +962,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
@@ -843,13 +1017,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -860,38 +1033,64 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -901,7 +1100,7 @@
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -913,7 +1112,7 @@
     <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,6 +1132,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1133,6 +1336,449 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.0"/>
+    <col customWidth="1" min="2" max="2" width="12.38"/>
+    <col customWidth="1" min="3" max="3" width="14.63"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
+    <col customWidth="1" min="5" max="5" width="26.25"/>
+    <col customWidth="1" min="6" max="6" width="20.75"/>
+    <col customWidth="1" min="7" max="7" width="8.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="heading=h.jtz6b0s59c9t" ref="E3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1156,543 +1802,543 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="16">
         <v>45308.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16">
+        <v>45339.0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16">
+        <v>45368.0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>45339.0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
+    <row r="6">
+      <c r="A6" s="16">
+        <v>45399.0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>45368.0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11" t="s">
+    <row r="7">
+      <c r="A7" s="16">
+        <v>45429.0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>45399.0</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="8" t="s">
+    <row r="8">
+      <c r="A8" s="16">
+        <v>45460.0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="H8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>45429.0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="8" t="s">
+    <row r="9">
+      <c r="A9" s="16">
+        <v>45490.0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="H9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>45460.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="11" t="s">
+    <row r="10">
+      <c r="A10" s="16">
+        <v>45521.0</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16">
+        <v>45552.0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>45490.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>45521.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>45552.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1708,7 +2354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
@@ -1734,482 +2380,482 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="16">
         <v>45309.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="16">
         <v>45340.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>59</v>
+      <c r="B4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="16">
         <v>45369.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16">
+        <v>45400.0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16">
+        <v>45430.0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="16">
+        <v>45461.0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16">
+        <v>45491.0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16">
+        <v>45522.0</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>45400.0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>45430.0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>45461.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>45491.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>45522.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2219,7 +2865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
@@ -2245,450 +2891,450 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="16">
         <v>45310.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="16">
         <v>45341.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11" t="s">
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="16">
         <v>45370.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="16">
         <v>45401.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11" t="s">
+      <c r="B6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="16">
         <v>45431.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16">
+        <v>45462.0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="E8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>45462.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Skybot Mobile Application/OSolodka_Localization_Interruption_BatteryDrain_TestingVersion3.0.xlsx
+++ b/Skybot Mobile Application/OSolodka_Localization_Interruption_BatteryDrain_TestingVersion3.0.xlsx
@@ -1336,6 +1336,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
